--- a/data/TiMeS_regression_info_processed.xlsx
+++ b/data/TiMeS_regression_info_processed.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maylismuller/Desktop/EPFL_DOCS/Master/MA4/Project Hummel/uphummel_MA4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maylismuller/Desktop/EPFL_DOCS/Master/MA4/Project Hummel/uphummel_MA4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD2380C-D527-7645-AF83-8F89F7141574}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F040C94-2336-BF45-B669-C173279D0188}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -901,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BJ345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="I117" sqref="I117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -20269,7 +20269,7 @@
         <v>98</v>
       </c>
       <c r="I115" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J115" t="s">
         <v>103</v>
@@ -20436,7 +20436,7 @@
         <v>98</v>
       </c>
       <c r="I116" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J116" t="s">
         <v>103</v>
@@ -20603,7 +20603,7 @@
         <v>98</v>
       </c>
       <c r="I117" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="J117" t="s">
         <v>103</v>
@@ -44374,7 +44374,7 @@
         <v>97</v>
       </c>
       <c r="I259" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J259" t="s">
         <v>103</v>
@@ -44535,7 +44535,7 @@
         <v>97</v>
       </c>
       <c r="I260" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J260" t="s">
         <v>103</v>
@@ -44702,7 +44702,7 @@
         <v>97</v>
       </c>
       <c r="I261" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J261" t="s">
         <v>103</v>
